--- a/biology/Zoologie/Geogarypus_elegans/Geogarypus_elegans.xlsx
+++ b/biology/Zoologie/Geogarypus_elegans/Geogarypus_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geogarypus elegans est une espèce de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Malaisie[1]. Elle se rencontre vers Kuala Aring.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Malaisie. Elle se rencontre vers Kuala Aring.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 3,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 3,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le nom Garypus personatus par Simon en 1901, ce nom étant préoccupé, elle est renommée Garypus personatus par With en 1906. Elle est placée dans le genre Geogarypus par Beier en 1932[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le nom Garypus personatus par Simon en 1901, ce nom étant préoccupé, elle est renommée Garypus personatus par With en 1906. Elle est placée dans le genre Geogarypus par Beier en 1932.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>With, 1906 : The Danish expedition to Siam 1899-1900. III. Chelonethi. An account of the Indian false-scorpions together with studies on the anatomy and classification of the order. Oversigt over det Konigelige Danske Videnskabernes Selskabs Forhandlinger, sér. 7, vol. 3, p. 1-214.
 Simon, 1901 : On the Arachnida collected during the Skeat expedition to the Malay Peninsula. Proceedings of the Zoological Society of London, vol. 1901, no 2, p. 45-84 (texte intégral).</t>
